--- a/BackTest/2019-10-30 BackTest RNT.xlsx
+++ b/BackTest/2019-10-30 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>11666.8888</v>
       </c>
       <c r="G2" t="n">
-        <v>418533.4249</v>
+        <v>13.45</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>99319.56179338235</v>
       </c>
       <c r="G3" t="n">
-        <v>418533.4249</v>
+        <v>13.45</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>15192.6111</v>
       </c>
       <c r="G4" t="n">
-        <v>418533.4249</v>
+        <v>13.45</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>46951.4183</v>
       </c>
       <c r="G5" t="n">
-        <v>418533.4249</v>
+        <v>13.455</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>615783.5915</v>
       </c>
       <c r="G6" t="n">
-        <v>-197250.1665999999</v>
+        <v>13.455</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>5000</v>
       </c>
       <c r="G7" t="n">
-        <v>-192250.1665999999</v>
+        <v>13.455</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>39027.3</v>
       </c>
       <c r="G8" t="n">
-        <v>-153222.8666</v>
+        <v>13.455</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>20919.4753</v>
       </c>
       <c r="G9" t="n">
-        <v>-174142.3418999999</v>
+        <v>13.45000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,13 +741,13 @@
         <v>7099.3233</v>
       </c>
       <c r="G10" t="n">
-        <v>-174142.3418999999</v>
+        <v>13.44500000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,13 +777,13 @@
         <v>2500</v>
       </c>
       <c r="G11" t="n">
-        <v>-171642.3418999999</v>
+        <v>13.44500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,13 +813,13 @@
         <v>3825.64</v>
       </c>
       <c r="G12" t="n">
-        <v>-167816.7018999999</v>
+        <v>13.45000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,13 +849,13 @@
         <v>637.9290999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-168454.6309999999</v>
+        <v>13.45000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,13 +885,13 @@
         <v>4990</v>
       </c>
       <c r="G14" t="n">
-        <v>-173444.6309999999</v>
+        <v>13.44000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>4990</v>
       </c>
       <c r="G15" t="n">
-        <v>-168454.6309999999</v>
+        <v>13.43500000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>4796.9552</v>
       </c>
       <c r="G16" t="n">
-        <v>-168454.6309999999</v>
+        <v>13.43000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>92372.53999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>-76082.09099999994</v>
+        <v>13.43000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,13 +1029,13 @@
         <v>7490</v>
       </c>
       <c r="G18" t="n">
-        <v>-83572.09099999994</v>
+        <v>13.42000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>8004.25</v>
       </c>
       <c r="G19" t="n">
-        <v>-83572.09099999994</v>
+        <v>13.41000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,13 +1101,13 @@
         <v>9627.200000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-73944.89099999995</v>
+        <v>13.40000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,13 +1137,13 @@
         <v>2490</v>
       </c>
       <c r="G21" t="n">
-        <v>-76434.89099999995</v>
+        <v>13.39000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,13 +1173,13 @@
         <v>14431.49</v>
       </c>
       <c r="G22" t="n">
-        <v>-76434.89099999995</v>
+        <v>13.38000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>20808.0784</v>
       </c>
       <c r="G23" t="n">
-        <v>-97242.96939999994</v>
+        <v>13.36500000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>10511.76</v>
       </c>
       <c r="G24" t="n">
-        <v>-86731.20939999995</v>
+        <v>13.35500000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>24406.5037</v>
       </c>
       <c r="G25" t="n">
-        <v>-111137.7130999999</v>
+        <v>13.34000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>18371.92</v>
       </c>
       <c r="G26" t="n">
-        <v>-111137.7130999999</v>
+        <v>13.33000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>61552.5099</v>
       </c>
       <c r="G27" t="n">
-        <v>-111137.7130999999</v>
+        <v>13.31500000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>81762.7984</v>
       </c>
       <c r="G28" t="n">
-        <v>-192900.5115</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>10857</v>
       </c>
       <c r="G29" t="n">
-        <v>-182043.5115</v>
+        <v>13.29500000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>39950</v>
       </c>
       <c r="G30" t="n">
-        <v>-182043.5115</v>
+        <v>13.29000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>78157.02340000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-182043.5115</v>
+        <v>13.28000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>20980.93</v>
       </c>
       <c r="G32" t="n">
-        <v>-161062.5815</v>
+        <v>13.27500000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>2500</v>
       </c>
       <c r="G33" t="n">
-        <v>-161062.5815</v>
+        <v>13.27500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,13 +1605,13 @@
         <v>13957.0999</v>
       </c>
       <c r="G34" t="n">
-        <v>-161062.5815</v>
+        <v>13.28000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>3494.2471</v>
       </c>
       <c r="G35" t="n">
-        <v>-161062.5815</v>
+        <v>13.28000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,13 +1677,13 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>-161162.5815</v>
+        <v>13.27500000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>2390</v>
       </c>
       <c r="G37" t="n">
-        <v>-161162.5815</v>
+        <v>13.27000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>61675</v>
       </c>
       <c r="G38" t="n">
-        <v>-161162.5815</v>
+        <v>13.27000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>14399.5761</v>
       </c>
       <c r="G39" t="n">
-        <v>-175562.1576</v>
+        <v>13.27000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>9930</v>
       </c>
       <c r="G40" t="n">
-        <v>-175562.1576</v>
+        <v>13.26500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>8209.103999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-175562.1576</v>
+        <v>13.26000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="G42" t="n">
-        <v>-175550.1576</v>
+        <v>13.26500000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>3616.4775</v>
       </c>
       <c r="G43" t="n">
-        <v>-175550.1576</v>
+        <v>13.27500000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>-175550.1576</v>
+        <v>13.28000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>40.01</v>
       </c>
       <c r="G45" t="n">
-        <v>-175590.1676</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="G46" t="n">
-        <v>-175578.1676</v>
+        <v>13.29500000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>47145.3798</v>
       </c>
       <c r="G47" t="n">
-        <v>-222723.5474</v>
+        <v>13.30500000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>29925</v>
       </c>
       <c r="G48" t="n">
-        <v>-252648.5474</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>11572.6936</v>
       </c>
       <c r="G49" t="n">
-        <v>-241075.8538</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>17778.75</v>
       </c>
       <c r="G50" t="n">
-        <v>-258854.6038</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>17778.75</v>
       </c>
       <c r="G51" t="n">
-        <v>-258854.6038</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>9679.687900000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-258854.6038</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>402349.6995</v>
       </c>
       <c r="G53" t="n">
-        <v>-661204.3033</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>-661192.3033</v>
+        <v>13.27500000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>7719.99</v>
       </c>
       <c r="G55" t="n">
-        <v>-653472.3133</v>
+        <v>13.26500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>860</v>
       </c>
       <c r="G56" t="n">
-        <v>-654332.3133</v>
+        <v>13.26000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>4783.9849</v>
       </c>
       <c r="G57" t="n">
-        <v>-649548.3284</v>
+        <v>13.26000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,7 +2469,7 @@
         <v>24</v>
       </c>
       <c r="G58" t="n">
-        <v>-649548.3284</v>
+        <v>13.26000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>836</v>
       </c>
       <c r="G59" t="n">
-        <v>-649548.3284</v>
+        <v>13.26000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>21283.0977</v>
       </c>
       <c r="G60" t="n">
-        <v>-649548.3284</v>
+        <v>13.26500000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2577,7 @@
         <v>43408.356</v>
       </c>
       <c r="G61" t="n">
-        <v>-692956.6844</v>
+        <v>13.26500000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,7 +2613,7 @@
         <v>14286.17</v>
       </c>
       <c r="G62" t="n">
-        <v>-692956.6844</v>
+        <v>13.25500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2649,7 @@
         <v>73016.3</v>
       </c>
       <c r="G63" t="n">
-        <v>-765972.9844000001</v>
+        <v>13.24000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>-765960.9844000001</v>
+        <v>13.23000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>3946.8181</v>
       </c>
       <c r="G65" t="n">
-        <v>-765960.9844000001</v>
+        <v>13.22500000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>47383.7878</v>
       </c>
       <c r="G66" t="n">
-        <v>-765960.9844000001</v>
+        <v>13.21500000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>55119.6212</v>
       </c>
       <c r="G67" t="n">
-        <v>-765960.9844000001</v>
+        <v>13.21000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>11560</v>
       </c>
       <c r="G68" t="n">
-        <v>-765960.9844000001</v>
+        <v>13.21000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -2776,6 +2847,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2797,7 +2869,7 @@
         <v>17763.9848</v>
       </c>
       <c r="G69" t="n">
-        <v>-765960.9844000001</v>
+        <v>13.21000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2817,6 +2889,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2838,7 +2911,7 @@
         <v>17719.5749</v>
       </c>
       <c r="G70" t="n">
-        <v>-783680.5593000001</v>
+        <v>13.21000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,6 +2931,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2879,7 +2953,7 @@
         <v>2680</v>
       </c>
       <c r="G71" t="n">
-        <v>-781000.5593000001</v>
+        <v>13.21000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2901,6 +2975,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2922,7 +2997,7 @@
         <v>20430</v>
       </c>
       <c r="G72" t="n">
-        <v>-781000.5593000001</v>
+        <v>13.21000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
@@ -2944,6 +3019,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2965,7 +3041,7 @@
         <v>12870.4545</v>
       </c>
       <c r="G73" t="n">
-        <v>-781000.5593000001</v>
+        <v>13.21500000000001</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2987,6 +3063,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3008,7 +3085,7 @@
         <v>162648.6172</v>
       </c>
       <c r="G74" t="n">
-        <v>-781000.5593000001</v>
+        <v>13.21000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3028,6 +3105,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3049,7 +3127,7 @@
         <v>1353.94</v>
       </c>
       <c r="G75" t="n">
-        <v>-782354.4993</v>
+        <v>13.20500000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3069,6 +3147,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3090,7 +3169,7 @@
         <v>8399.389999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-773955.1093</v>
+        <v>13.20500000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3110,6 +3189,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3131,7 +3211,7 @@
         <v>20633.1271</v>
       </c>
       <c r="G77" t="n">
-        <v>-794588.2364000001</v>
+        <v>13.19000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3151,6 +3231,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3172,7 +3253,7 @@
         <v>31408.62</v>
       </c>
       <c r="G78" t="n">
-        <v>-763179.6164000001</v>
+        <v>13.18500000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3192,6 +3273,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3213,7 +3295,7 @@
         <v>4893.95</v>
       </c>
       <c r="G79" t="n">
-        <v>-763179.6164000001</v>
+        <v>13.18000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3233,6 +3315,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3254,7 +3337,7 @@
         <v>56452.1355</v>
       </c>
       <c r="G80" t="n">
-        <v>-819631.7519</v>
+        <v>13.17000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3274,6 +3357,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3295,7 +3379,7 @@
         <v>3097.82</v>
       </c>
       <c r="G81" t="n">
-        <v>-816533.9319000001</v>
+        <v>13.17000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3317,6 +3401,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,7 +3423,7 @@
         <v>44728.66</v>
       </c>
       <c r="G82" t="n">
-        <v>-816533.9319000001</v>
+        <v>13.17000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -3360,6 +3445,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3381,7 +3467,7 @@
         <v>774.8561999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-817308.7881000001</v>
+        <v>13.17000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3401,6 +3487,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3422,7 +3509,7 @@
         <v>67.25369999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-817241.5344000001</v>
+        <v>13.17000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3442,6 +3529,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3463,7 +3551,7 @@
         <v>6206.7536</v>
       </c>
       <c r="G85" t="n">
-        <v>-823448.2880000002</v>
+        <v>13.16500000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3483,6 +3571,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3504,7 +3593,7 @@
         <v>7865</v>
       </c>
       <c r="G86" t="n">
-        <v>-815583.2880000002</v>
+        <v>13.16500000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3524,6 +3613,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3545,7 +3635,7 @@
         <v>23461.25</v>
       </c>
       <c r="G87" t="n">
-        <v>-815583.2880000002</v>
+        <v>13.16500000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3565,6 +3655,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3586,7 +3677,7 @@
         <v>56792.9388</v>
       </c>
       <c r="G88" t="n">
-        <v>-872376.2268000002</v>
+        <v>13.16000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3606,6 +3697,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3627,7 +3719,7 @@
         <v>11910.606</v>
       </c>
       <c r="G89" t="n">
-        <v>-860465.6208000001</v>
+        <v>13.16000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3647,6 +3739,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3668,7 +3761,7 @@
         <v>480979.9049</v>
       </c>
       <c r="G90" t="n">
-        <v>-1341445.5257</v>
+        <v>13.15000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3688,6 +3781,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3709,7 +3803,7 @@
         <v>57354.3252</v>
       </c>
       <c r="G91" t="n">
-        <v>-1284091.2005</v>
+        <v>13.14000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3729,6 +3823,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3750,7 +3845,7 @@
         <v>6128.8167</v>
       </c>
       <c r="G92" t="n">
-        <v>-1290220.0172</v>
+        <v>13.13000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3770,6 +3865,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3791,7 +3887,7 @@
         <v>135299.4318</v>
       </c>
       <c r="G93" t="n">
-        <v>-1425519.449</v>
+        <v>13.11500000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3811,6 +3907,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3832,7 +3929,7 @@
         <v>5890</v>
       </c>
       <c r="G94" t="n">
-        <v>-1419629.449</v>
+        <v>13.11500000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3852,6 +3949,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3873,7 +3971,7 @@
         <v>490210.3593</v>
       </c>
       <c r="G95" t="n">
-        <v>-1909839.8083</v>
+        <v>13.10500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3893,6 +3991,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3914,7 +4013,7 @@
         <v>14694.6563</v>
       </c>
       <c r="G96" t="n">
-        <v>-1895145.152</v>
+        <v>13.08500000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3934,6 +4033,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3955,7 +4055,7 @@
         <v>15487.2785</v>
       </c>
       <c r="G97" t="n">
-        <v>-1879657.8735</v>
+        <v>13.08000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3975,6 +4075,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3996,7 +4097,7 @@
         <v>33734.8776</v>
       </c>
       <c r="G98" t="n">
-        <v>-1913392.7511</v>
+        <v>13.06500000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4016,6 +4117,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4037,7 +4139,7 @@
         <v>2980</v>
       </c>
       <c r="G99" t="n">
-        <v>-1910412.7511</v>
+        <v>13.05500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4057,6 +4159,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4078,7 +4181,7 @@
         <v>2840</v>
       </c>
       <c r="G100" t="n">
-        <v>-1910412.7511</v>
+        <v>13.05000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4098,6 +4201,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4119,7 +4223,7 @@
         <v>235398.5368</v>
       </c>
       <c r="G101" t="n">
-        <v>-2145811.2879</v>
+        <v>13.03000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4139,6 +4243,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4160,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="G102" t="n">
-        <v>-2145799.2879</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4180,6 +4285,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4201,7 +4307,7 @@
         <v>13082.4813</v>
       </c>
       <c r="G103" t="n">
-        <v>-2158881.7692</v>
+        <v>13.00500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4223,6 +4329,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4244,7 +4351,7 @@
         <v>23157.7975</v>
       </c>
       <c r="G104" t="n">
-        <v>-2158881.7692</v>
+        <v>12.98500000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4264,6 +4371,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4285,7 +4393,7 @@
         <v>2448.73</v>
       </c>
       <c r="G105" t="n">
-        <v>-2156433.0392</v>
+        <v>12.98000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4307,6 +4415,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4328,7 +4437,7 @@
         <v>8166.3399</v>
       </c>
       <c r="G106" t="n">
-        <v>-2148266.6993</v>
+        <v>12.97000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4348,6 +4457,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4369,7 +4479,7 @@
         <v>37960.4928</v>
       </c>
       <c r="G107" t="n">
-        <v>-2186227.192100001</v>
+        <v>12.95500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4391,6 +4501,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4412,7 +4523,7 @@
         <v>47014.2325</v>
       </c>
       <c r="G108" t="n">
-        <v>-2186227.192100001</v>
+        <v>12.94500000000001</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4434,6 +4545,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4455,7 +4567,7 @@
         <v>22261.07</v>
       </c>
       <c r="G109" t="n">
-        <v>-2186227.192100001</v>
+        <v>12.93000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4475,6 +4587,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4496,7 +4609,7 @@
         <v>72657.7798</v>
       </c>
       <c r="G110" t="n">
-        <v>-2258884.971900001</v>
+        <v>12.92000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4518,6 +4631,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4539,7 +4653,7 @@
         <v>22862.04</v>
       </c>
       <c r="G111" t="n">
-        <v>-2236022.931900001</v>
+        <v>12.91500000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4559,6 +4673,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4580,7 +4695,7 @@
         <v>2440</v>
       </c>
       <c r="G112" t="n">
-        <v>-2238462.931900001</v>
+        <v>12.91000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4600,6 +4715,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4621,7 +4737,7 @@
         <v>48292.1483</v>
       </c>
       <c r="G113" t="n">
-        <v>-2190170.783600001</v>
+        <v>12.90500000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4641,6 +4757,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4662,7 +4779,7 @@
         <v>669.1472</v>
       </c>
       <c r="G114" t="n">
-        <v>-2190839.930800001</v>
+        <v>12.89500000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4682,6 +4799,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4703,7 +4821,7 @@
         <v>19675.51</v>
       </c>
       <c r="G115" t="n">
-        <v>-2171164.420800001</v>
+        <v>12.89500000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4723,6 +4841,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4744,7 +4863,7 @@
         <v>3552.8011</v>
       </c>
       <c r="G116" t="n">
-        <v>-2174717.221900001</v>
+        <v>12.90000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4764,6 +4883,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4785,7 +4905,7 @@
         <v>2337</v>
       </c>
       <c r="G117" t="n">
-        <v>-2174717.221900001</v>
+        <v>12.90000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4805,6 +4925,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4826,7 +4947,7 @@
         <v>190132</v>
       </c>
       <c r="G118" t="n">
-        <v>-2174717.221900001</v>
+        <v>12.90000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4846,6 +4967,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4867,7 +4989,7 @@
         <v>3786.58</v>
       </c>
       <c r="G119" t="n">
-        <v>-2174717.221900001</v>
+        <v>12.895</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4887,6 +5009,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4908,7 +5031,7 @@
         <v>3780</v>
       </c>
       <c r="G120" t="n">
-        <v>-2174717.221900001</v>
+        <v>12.89</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4928,6 +5051,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4949,7 +5073,7 @@
         <v>10025</v>
       </c>
       <c r="G121" t="n">
-        <v>-2164692.221900001</v>
+        <v>12.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4969,6 +5093,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4990,7 +5115,7 @@
         <v>10084</v>
       </c>
       <c r="G122" t="n">
-        <v>-2174776.221900001</v>
+        <v>12.895</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5010,6 +5135,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5031,7 +5157,7 @@
         <v>3748.9634</v>
       </c>
       <c r="G123" t="n">
-        <v>-2178525.1853</v>
+        <v>12.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5051,6 +5177,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest RNT.xlsx
+++ b/BackTest/2019-10-30 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>411193.9949</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>418533.4249</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>418533.4249</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>418533.4249</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>418533.4249</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-167816.7018999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-173444.6309999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-76082.09099999994</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-76434.89099999995</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-161062.5815</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-161062.5815</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-175578.1676</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-661192.3033</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-692956.6844</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-765972.9844000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-781000.5593000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-781000.5593000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-782354.4993</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-773955.1093</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-794588.2364000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-763179.6164000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>-763179.6164000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>-819631.7519</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-817308.7881000001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,19 @@
         <v>-1341445.5257</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>13.2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>13.2</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4351,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4390,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4427,23 @@
         <v>-1425519.449</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="J122" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4468,23 @@
         <v>-1419629.449</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>12.9</v>
+      </c>
+      <c r="J123" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4511,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4550,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4589,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4628,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4665,23 @@
         <v>-1910412.7511</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>12.8</v>
+      </c>
+      <c r="J128" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4708,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4745,23 @@
         <v>-2145811.2879</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="J130" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4786,23 @@
         <v>-2145799.2879</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>12.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4829,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4866,23 @@
         <v>-2158881.7692</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>12.8</v>
+      </c>
+      <c r="J133" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,22 +4907,23 @@
         <v>-2156433.0392</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="J134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>13.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5248,26 +4948,23 @@
         <v>-2148266.6993</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J135" t="n">
-        <v>13</v>
-      </c>
-      <c r="K135" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5292,26 +4989,23 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="J136" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5336,22 +5030,23 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>13.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5376,26 +5071,23 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5420,26 +5112,23 @@
         <v>-2258884.971900001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J139" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K139" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5464,22 +5153,23 @@
         <v>-2236022.931900001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="J140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>13.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5504,26 +5194,23 @@
         <v>-2238462.931900001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J141" t="n">
-        <v>13</v>
-      </c>
-      <c r="K141" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L141" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5548,26 +5235,23 @@
         <v>-2190170.783600001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J142" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5592,26 +5276,23 @@
         <v>-2190839.930800001</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J143" t="n">
-        <v>13</v>
-      </c>
-      <c r="K143" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5636,26 +5317,23 @@
         <v>-2171164.420800001</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K144" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5680,26 +5358,23 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J145" t="n">
-        <v>13</v>
-      </c>
-      <c r="K145" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L145" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5724,26 +5399,23 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K146" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L146" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5768,26 +5440,23 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J147" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K147" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L147" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5812,26 +5481,23 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J148" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K148" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5856,26 +5522,23 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J149" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K149" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L149" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5900,26 +5563,23 @@
         <v>-2164692.221900001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J150" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K150" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5944,26 +5604,23 @@
         <v>-2174776.221900001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J151" t="n">
-        <v>13</v>
-      </c>
-      <c r="K151" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L151" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5988,28 +5645,25 @@
         <v>-2178525.1853</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="J152" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K152" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="L152" t="inlineStr">
+        <v>13.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest RNT.xlsx
+++ b/BackTest/2019-10-30 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>652561.3648000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>545358.0077000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>448290.9121000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>448290.9121000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>448290.9121000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>411193.9949</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>411193.9949</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-197250.1665999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-192250.1665999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-153222.8666</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-174142.3418999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-174142.3418999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-167816.7018999999</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-173444.6309999999</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-76082.09099999994</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-83572.09099999994</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-83572.09099999994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-73944.89099999995</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-76434.89099999995</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-76434.89099999995</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-97242.96939999994</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-86731.20939999995</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-111137.7130999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-111137.7130999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-111137.7130999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-192900.5115</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-182043.5115</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-182043.5115</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-182043.5115</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-161062.5815</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-161062.5815</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-161062.5815</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-161062.5815</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-175562.1576</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-175562.1576</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-175550.1576</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-175550.1576</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-175578.1676</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-661192.3033</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-692956.6844</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-765972.9844000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-765960.9844000001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-781000.5593000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-781000.5593000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-782354.4993</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-773955.1093</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-794588.2364000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-763179.6164000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-763179.6164000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-819631.7519</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-817308.7881000001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4312,14 +4312,10 @@
         <v>-1341445.5257</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>13.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4352,902 +4348,794 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>13</v>
+      </c>
+      <c r="C121" t="n">
+        <v>13</v>
+      </c>
+      <c r="D121" t="n">
+        <v>13</v>
+      </c>
+      <c r="E121" t="n">
+        <v>13</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6128.8167</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1290220.0172</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>135299.4318</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1425519.449</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5890</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1419629.449</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>490210.3593</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1909839.8083</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>13</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14694.6563</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1895145.152</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15487.2785</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1879657.8735</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>33734.8776</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1913392.7511</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>13</v>
+      </c>
+      <c r="C128" t="n">
+        <v>13</v>
+      </c>
+      <c r="D128" t="n">
+        <v>13</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2980</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1910412.7511</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>13</v>
+      </c>
+      <c r="C129" t="n">
+        <v>13</v>
+      </c>
+      <c r="D129" t="n">
+        <v>13</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1910412.7511</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>235398.5368</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2145811.2879</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>13</v>
+      </c>
+      <c r="C131" t="n">
+        <v>13</v>
+      </c>
+      <c r="D131" t="n">
+        <v>13</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2145799.2879</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>13082.4813</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2158881.7692</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>23157.7975</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2158881.7692</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>13</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13</v>
+      </c>
+      <c r="D134" t="n">
+        <v>13</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2448.73</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2156433.0392</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>13</v>
+      </c>
+      <c r="C135" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8166.3399</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2148266.6993</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>13</v>
+      </c>
+      <c r="J135" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>37960.4928</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2186227.192100001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>47014.2325</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2186227.192100001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22261.07</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2186227.192100001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>72657.7798</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2258884.971900001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13</v>
+      </c>
+      <c r="D140" t="n">
+        <v>13</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>22862.04</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2236022.931900001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2440</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2238462.931900001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>13</v>
+      </c>
+      <c r="J141" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>13</v>
+      </c>
+      <c r="D142" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>48292.1483</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2190170.783600001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>13</v>
-      </c>
-      <c r="C121" t="n">
-        <v>13</v>
-      </c>
-      <c r="D121" t="n">
-        <v>13</v>
-      </c>
-      <c r="E121" t="n">
-        <v>13</v>
-      </c>
-      <c r="F121" t="n">
-        <v>6128.8167</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1290220.0172</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F122" t="n">
-        <v>135299.4318</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1425519.449</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>13</v>
-      </c>
-      <c r="J122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C123" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F123" t="n">
-        <v>5890</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1419629.449</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J123" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>490210.3593</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1909839.8083</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>13</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>14694.6563</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1895145.152</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>15487.2785</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1879657.8735</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F127" t="n">
-        <v>33734.8776</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1913392.7511</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>13</v>
-      </c>
-      <c r="C128" t="n">
-        <v>13</v>
-      </c>
-      <c r="D128" t="n">
-        <v>13</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2980</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1910412.7511</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>13</v>
-      </c>
-      <c r="C129" t="n">
-        <v>13</v>
-      </c>
-      <c r="D129" t="n">
-        <v>13</v>
-      </c>
-      <c r="E129" t="n">
-        <v>13</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2840</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1910412.7511</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>235398.5368</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2145811.2879</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>13</v>
-      </c>
-      <c r="J130" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>13</v>
-      </c>
-      <c r="C131" t="n">
-        <v>13</v>
-      </c>
-      <c r="D131" t="n">
-        <v>13</v>
-      </c>
-      <c r="E131" t="n">
-        <v>13</v>
-      </c>
-      <c r="F131" t="n">
-        <v>12</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2145799.2879</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>13082.4813</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-2158881.7692</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>23157.7975</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2158881.7692</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>13</v>
-      </c>
-      <c r="C134" t="n">
-        <v>13</v>
-      </c>
-      <c r="D134" t="n">
-        <v>13</v>
-      </c>
-      <c r="E134" t="n">
-        <v>13</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2448.73</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2156433.0392</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J134" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>13</v>
-      </c>
-      <c r="C135" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>13</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8166.3399</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2148266.6993</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>13</v>
-      </c>
-      <c r="J135" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F136" t="n">
-        <v>37960.4928</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F137" t="n">
-        <v>47014.2325</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F138" t="n">
-        <v>22261.07</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J138" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>72657.7798</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2258884.971900001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C140" t="n">
-        <v>13</v>
-      </c>
-      <c r="D140" t="n">
-        <v>13</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F140" t="n">
-        <v>22862.04</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2236022.931900001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2440</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2238462.931900001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>13</v>
-      </c>
-      <c r="J141" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>13</v>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>48292.1483</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2190170.783600001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J142" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5276,13 +5164,13 @@
         <v>-2190839.930800001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>13</v>
       </c>
       <c r="J143" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5317,13 +5205,13 @@
         <v>-2171164.420800001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>12.9</v>
       </c>
       <c r="J144" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5358,13 +5246,13 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>13</v>
       </c>
       <c r="J145" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5399,13 +5287,13 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>12.9</v>
       </c>
       <c r="J146" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5440,13 +5328,13 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>12.9</v>
       </c>
       <c r="J147" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5481,13 +5369,13 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>12.9</v>
       </c>
       <c r="J148" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5522,13 +5410,13 @@
         <v>-2174717.221900001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>12.9</v>
       </c>
       <c r="J149" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5563,13 +5451,13 @@
         <v>-2164692.221900001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>12.9</v>
       </c>
       <c r="J150" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5604,13 +5492,13 @@
         <v>-2174776.221900001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>13</v>
       </c>
       <c r="J151" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5645,13 +5533,11 @@
         <v>-2178525.1853</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5664,6 +5550,6 @@
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest RNT.xlsx
+++ b/BackTest/2019-10-30 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>652561.3648000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>448290.9121000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>448290.9121000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>448290.9121000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>411193.9949</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>411193.9949</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-197250.1665999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-192250.1665999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-153222.8666</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-174142.3418999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-174142.3418999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-167816.7018999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-173444.6309999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-168454.6309999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-76082.09099999994</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-83572.09099999994</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-83572.09099999994</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-73944.89099999995</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-76434.89099999995</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-76434.89099999995</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-97242.96939999994</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-86731.20939999995</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-111137.7130999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-111137.7130999999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-111137.7130999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-192900.5115</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-182043.5115</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-182043.5115</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-182043.5115</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-161062.5815</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-161062.5815</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-161062.5815</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-175562.1576</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-175562.1576</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-175550.1576</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-175550.1576</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4543,11 +4543,17 @@
         <v>-1879657.8735</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4582,17 @@
         <v>-1913392.7511</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4621,17 @@
         <v>-1910412.7511</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12.8</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4660,17 @@
         <v>-1910412.7511</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>13</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4703,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4736,17 @@
         <v>-2145799.2879</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4779,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4816,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4812,10 +4854,12 @@
       <c r="I134" t="n">
         <v>12.8</v>
       </c>
-      <c r="J134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4849,12 +4893,10 @@
       <c r="I135" t="n">
         <v>13</v>
       </c>
-      <c r="J135" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4885,17 +4927,13 @@
         <v>-2186227.192100001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>12.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4931,10 +4969,12 @@
       <c r="I137" t="n">
         <v>12.9</v>
       </c>
-      <c r="J137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4968,12 +5008,10 @@
       <c r="I138" t="n">
         <v>12.9</v>
       </c>
-      <c r="J138" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5009,12 +5047,10 @@
       <c r="I139" t="n">
         <v>12.9</v>
       </c>
-      <c r="J139" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5050,10 +5086,12 @@
       <c r="I140" t="n">
         <v>12.8</v>
       </c>
-      <c r="J140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5087,12 +5125,10 @@
       <c r="I141" t="n">
         <v>13</v>
       </c>
-      <c r="J141" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5128,12 +5164,10 @@
       <c r="I142" t="n">
         <v>12.9</v>
       </c>
-      <c r="J142" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -5169,9 +5203,7 @@
       <c r="I143" t="n">
         <v>13</v>
       </c>
-      <c r="J143" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,9 +5242,7 @@
       <c r="I144" t="n">
         <v>12.9</v>
       </c>
-      <c r="J144" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5251,9 +5281,7 @@
       <c r="I145" t="n">
         <v>13</v>
       </c>
-      <c r="J145" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,9 +5320,7 @@
       <c r="I146" t="n">
         <v>12.9</v>
       </c>
-      <c r="J146" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,9 +5359,7 @@
       <c r="I147" t="n">
         <v>12.9</v>
       </c>
-      <c r="J147" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5374,9 +5398,7 @@
       <c r="I148" t="n">
         <v>12.9</v>
       </c>
-      <c r="J148" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,9 +5437,7 @@
       <c r="I149" t="n">
         <v>12.9</v>
       </c>
-      <c r="J149" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,9 +5476,7 @@
       <c r="I150" t="n">
         <v>12.9</v>
       </c>
-      <c r="J150" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5497,9 +5515,7 @@
       <c r="I151" t="n">
         <v>13</v>
       </c>
-      <c r="J151" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5533,12 +5549,12 @@
         <v>-2178525.1853</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>12.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5550,6 +5566,6 @@
       <c r="M152" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest RNT.xlsx
+++ b/BackTest/2019-10-30 BackTest RNT.xlsx
@@ -451,7 +451,7 @@
         <v>652561.3648000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>572561.3648000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>550803.6777000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>445097.8121000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>418533.4249</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-197250.1665999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-192250.1665999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-174142.3418999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -4543,828 +4543,716 @@
         <v>-1879657.8735</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>33734.8776</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1913392.7511</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>13</v>
+      </c>
+      <c r="C128" t="n">
+        <v>13</v>
+      </c>
+      <c r="D128" t="n">
+        <v>13</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2980</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1910412.7511</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>13</v>
+      </c>
+      <c r="C129" t="n">
+        <v>13</v>
+      </c>
+      <c r="D129" t="n">
+        <v>13</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1910412.7511</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>235398.5368</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2145811.2879</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>13</v>
+      </c>
+      <c r="C131" t="n">
+        <v>13</v>
+      </c>
+      <c r="D131" t="n">
+        <v>13</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2145799.2879</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>13082.4813</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2158881.7692</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>23157.7975</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2158881.7692</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>13</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13</v>
+      </c>
+      <c r="D134" t="n">
+        <v>13</v>
+      </c>
+      <c r="E134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2448.73</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2156433.0392</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>13</v>
+      </c>
+      <c r="C135" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8166.3399</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2148266.6993</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>37960.4928</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2186227.192100001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>47014.2325</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2186227.192100001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22261.07</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2186227.192100001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>72657.7798</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2258884.971900001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13</v>
+      </c>
+      <c r="D140" t="n">
+        <v>13</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>22862.04</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2236022.931900001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2440</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2238462.931900001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>13</v>
+      </c>
+      <c r="D142" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>48292.1483</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2190170.783600001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>669.1472</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2190839.930800001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>13</v>
+      </c>
+      <c r="D144" t="n">
+        <v>13</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19675.51</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2171164.420800001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3552.8011</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2174717.221900001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2337</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2174717.221900001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>190132</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2174717.221900001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J147" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F127" t="n">
-        <v>33734.8776</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1913392.7511</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>13</v>
-      </c>
-      <c r="C128" t="n">
-        <v>13</v>
-      </c>
-      <c r="D128" t="n">
-        <v>13</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2980</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1910412.7511</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>13</v>
-      </c>
-      <c r="C129" t="n">
-        <v>13</v>
-      </c>
-      <c r="D129" t="n">
-        <v>13</v>
-      </c>
-      <c r="E129" t="n">
-        <v>13</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2840</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1910412.7511</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>13</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>235398.5368</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2145811.2879</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>13</v>
-      </c>
-      <c r="C131" t="n">
-        <v>13</v>
-      </c>
-      <c r="D131" t="n">
-        <v>13</v>
-      </c>
-      <c r="E131" t="n">
-        <v>13</v>
-      </c>
-      <c r="F131" t="n">
-        <v>12</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2145799.2879</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>13082.4813</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-2158881.7692</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>23157.7975</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2158881.7692</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>13</v>
-      </c>
-      <c r="C134" t="n">
-        <v>13</v>
-      </c>
-      <c r="D134" t="n">
-        <v>13</v>
-      </c>
-      <c r="E134" t="n">
-        <v>13</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2448.73</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2156433.0392</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>13</v>
-      </c>
-      <c r="C135" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>13</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8166.3399</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2148266.6993</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>13</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F136" t="n">
-        <v>37960.4928</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F137" t="n">
-        <v>47014.2325</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F138" t="n">
-        <v>22261.07</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>72657.7798</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2258884.971900001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C140" t="n">
-        <v>13</v>
-      </c>
-      <c r="D140" t="n">
-        <v>13</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F140" t="n">
-        <v>22862.04</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2236022.931900001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2440</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2238462.931900001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>13</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>13</v>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>48292.1483</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2190170.783600001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>669.1472</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-2190839.930800001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>13</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C144" t="n">
-        <v>13</v>
-      </c>
-      <c r="D144" t="n">
-        <v>13</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>19675.51</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-2171164.420800001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C145" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E145" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3552.8011</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>13</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2337</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>190132</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5398,7 +5286,9 @@
       <c r="I148" t="n">
         <v>12.9</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.9</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,7 +5327,9 @@
       <c r="I149" t="n">
         <v>12.9</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>12.9</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,7 +5368,9 @@
       <c r="I150" t="n">
         <v>12.9</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>12.9</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5515,7 +5409,9 @@
       <c r="I151" t="n">
         <v>13</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>12.9</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5554,7 +5450,9 @@
       <c r="I152" t="n">
         <v>12.9</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>12.9</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-30 BackTest RNT.xlsx
+++ b/BackTest/2019-10-30 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>27176.074</v>
       </c>
       <c r="G2" t="n">
-        <v>652561.3648000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>80000</v>
       </c>
       <c r="G3" t="n">
-        <v>572561.3648000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>550.1084</v>
       </c>
       <c r="G4" t="n">
-        <v>572561.3648000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>27203.3571</v>
       </c>
       <c r="G5" t="n">
-        <v>545358.0077000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>5445.67</v>
       </c>
       <c r="G6" t="n">
-        <v>550803.6777000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>6905.5899</v>
       </c>
       <c r="G7" t="n">
-        <v>550803.6777000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4357.0699</v>
       </c>
       <c r="G8" t="n">
-        <v>550803.6777000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1695.3233</v>
       </c>
       <c r="G9" t="n">
-        <v>550803.6777000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>24029.84</v>
       </c>
       <c r="G10" t="n">
-        <v>550803.6777000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>6802.68</v>
       </c>
       <c r="G11" t="n">
-        <v>550803.6777000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>156442.5925</v>
       </c>
       <c r="G12" t="n">
-        <v>550803.6777000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>105705.8656</v>
       </c>
       <c r="G13" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3108.21</v>
       </c>
       <c r="G14" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>9150.4</v>
       </c>
       <c r="G15" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>14826.1</v>
       </c>
       <c r="G16" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>997.5001</v>
       </c>
       <c r="G17" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>36550.6063</v>
       </c>
       <c r="G18" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>185248.2089</v>
       </c>
       <c r="G19" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>101.1194</v>
       </c>
       <c r="G20" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7796.61</v>
       </c>
       <c r="G21" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>31609.4702</v>
       </c>
       <c r="G22" t="n">
-        <v>445097.8121000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3193.1</v>
       </c>
       <c r="G23" t="n">
-        <v>448290.9121000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>43330.8148</v>
       </c>
       <c r="G24" t="n">
-        <v>448290.9121000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>37096.9172</v>
       </c>
       <c r="G25" t="n">
-        <v>448290.9121000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>37096.9172</v>
       </c>
       <c r="G26" t="n">
-        <v>411193.9949</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>6576.4459</v>
       </c>
       <c r="G27" t="n">
-        <v>411193.9949</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7339.43</v>
       </c>
       <c r="G28" t="n">
-        <v>418533.4249</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>10680</v>
       </c>
       <c r="G29" t="n">
-        <v>418533.4249</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>156.5185</v>
       </c>
       <c r="G30" t="n">
-        <v>418533.4249</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>11666.8888</v>
       </c>
       <c r="G31" t="n">
-        <v>418533.4249</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>99319.56179338235</v>
       </c>
       <c r="G32" t="n">
-        <v>418533.4249</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>15192.6111</v>
       </c>
       <c r="G33" t="n">
-        <v>418533.4249</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>46951.4183</v>
       </c>
       <c r="G34" t="n">
-        <v>418533.4249</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>615783.5915</v>
       </c>
       <c r="G35" t="n">
-        <v>-197250.1665999999</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>-192250.1665999999</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>39027.3</v>
       </c>
       <c r="G37" t="n">
-        <v>-153222.8666</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>20919.4753</v>
       </c>
       <c r="G38" t="n">
-        <v>-174142.3418999999</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>7099.3233</v>
       </c>
       <c r="G39" t="n">
-        <v>-174142.3418999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>2500</v>
       </c>
       <c r="G40" t="n">
-        <v>-171642.3418999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3825.64</v>
       </c>
       <c r="G41" t="n">
-        <v>-167816.7018999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>637.9290999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-168454.6309999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4990</v>
       </c>
       <c r="G43" t="n">
-        <v>-173444.6309999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>4990</v>
       </c>
       <c r="G44" t="n">
-        <v>-168454.6309999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>4796.9552</v>
       </c>
       <c r="G45" t="n">
-        <v>-168454.6309999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>92372.53999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-76082.09099999994</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>7490</v>
       </c>
       <c r="G47" t="n">
-        <v>-83572.09099999994</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>8004.25</v>
       </c>
       <c r="G48" t="n">
-        <v>-83572.09099999994</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>9627.200000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-73944.89099999995</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2490</v>
       </c>
       <c r="G50" t="n">
-        <v>-76434.89099999995</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>14431.49</v>
       </c>
       <c r="G51" t="n">
-        <v>-76434.89099999995</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>20808.0784</v>
       </c>
       <c r="G52" t="n">
-        <v>-97242.96939999994</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>10511.76</v>
       </c>
       <c r="G53" t="n">
-        <v>-86731.20939999995</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>24406.5037</v>
       </c>
       <c r="G54" t="n">
-        <v>-111137.7130999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>18371.92</v>
       </c>
       <c r="G55" t="n">
-        <v>-111137.7130999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>61552.5099</v>
       </c>
       <c r="G56" t="n">
-        <v>-111137.7130999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>81762.7984</v>
       </c>
       <c r="G57" t="n">
-        <v>-192900.5115</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>10857</v>
       </c>
       <c r="G58" t="n">
-        <v>-182043.5115</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>39950</v>
       </c>
       <c r="G59" t="n">
-        <v>-182043.5115</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>78157.02340000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-182043.5115</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>20980.93</v>
       </c>
       <c r="G61" t="n">
-        <v>-161062.5815</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>2500</v>
       </c>
       <c r="G62" t="n">
-        <v>-161062.5815</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>13957.0999</v>
       </c>
       <c r="G63" t="n">
-        <v>-161062.5815</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3494.2471</v>
       </c>
       <c r="G64" t="n">
-        <v>-161062.5815</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>-161162.5815</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2390</v>
       </c>
       <c r="G66" t="n">
-        <v>-161162.5815</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>61675</v>
       </c>
       <c r="G67" t="n">
-        <v>-161162.5815</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>14399.5761</v>
       </c>
       <c r="G68" t="n">
-        <v>-175562.1576</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>9930</v>
       </c>
       <c r="G69" t="n">
-        <v>-175562.1576</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>8209.103999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>-175562.1576</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>12</v>
       </c>
       <c r="G71" t="n">
-        <v>-175550.1576</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3616.4775</v>
       </c>
       <c r="G72" t="n">
-        <v>-175550.1576</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>-175550.1576</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>40.01</v>
       </c>
       <c r="G74" t="n">
-        <v>-175590.1676</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>-175578.1676</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>47145.3798</v>
       </c>
       <c r="G76" t="n">
-        <v>-222723.5474</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>29925</v>
       </c>
       <c r="G77" t="n">
-        <v>-252648.5474</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>11572.6936</v>
       </c>
       <c r="G78" t="n">
-        <v>-241075.8538</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>17778.75</v>
       </c>
       <c r="G79" t="n">
-        <v>-258854.6038</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>17778.75</v>
       </c>
       <c r="G80" t="n">
-        <v>-258854.6038</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>9679.687900000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-258854.6038</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>402349.6995</v>
       </c>
       <c r="G82" t="n">
-        <v>-661204.3033</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>-661192.3033</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>7719.99</v>
       </c>
       <c r="G84" t="n">
-        <v>-653472.3133</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>860</v>
       </c>
       <c r="G85" t="n">
-        <v>-654332.3133</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>4783.9849</v>
       </c>
       <c r="G86" t="n">
-        <v>-649548.3284</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>24</v>
       </c>
       <c r="G87" t="n">
-        <v>-649548.3284</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>836</v>
       </c>
       <c r="G88" t="n">
-        <v>-649548.3284</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>21283.0977</v>
       </c>
       <c r="G89" t="n">
-        <v>-649548.3284</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>43408.356</v>
       </c>
       <c r="G90" t="n">
-        <v>-692956.6844</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>14286.17</v>
       </c>
       <c r="G91" t="n">
-        <v>-692956.6844</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>73016.3</v>
       </c>
       <c r="G92" t="n">
-        <v>-765972.9844000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>12</v>
       </c>
       <c r="G93" t="n">
-        <v>-765960.9844000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>3946.8181</v>
       </c>
       <c r="G94" t="n">
-        <v>-765960.9844000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>47383.7878</v>
       </c>
       <c r="G95" t="n">
-        <v>-765960.9844000001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>55119.6212</v>
       </c>
       <c r="G96" t="n">
-        <v>-765960.9844000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>11560</v>
       </c>
       <c r="G97" t="n">
-        <v>-765960.9844000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>17763.9848</v>
       </c>
       <c r="G98" t="n">
-        <v>-765960.9844000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>17719.5749</v>
       </c>
       <c r="G99" t="n">
-        <v>-783680.5593000001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>2680</v>
       </c>
       <c r="G100" t="n">
-        <v>-781000.5593000001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>20430</v>
       </c>
       <c r="G101" t="n">
-        <v>-781000.5593000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>12870.4545</v>
       </c>
       <c r="G102" t="n">
-        <v>-781000.5593000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>162648.6172</v>
       </c>
       <c r="G103" t="n">
-        <v>-781000.5593000001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1353.94</v>
       </c>
       <c r="G104" t="n">
-        <v>-782354.4993</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>8399.389999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-773955.1093</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>20633.1271</v>
       </c>
       <c r="G106" t="n">
-        <v>-794588.2364000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>31408.62</v>
       </c>
       <c r="G107" t="n">
-        <v>-763179.6164000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>4893.95</v>
       </c>
       <c r="G108" t="n">
-        <v>-763179.6164000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>56452.1355</v>
       </c>
       <c r="G109" t="n">
-        <v>-819631.7519</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>3097.82</v>
       </c>
       <c r="G110" t="n">
-        <v>-816533.9319000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>44728.66</v>
       </c>
       <c r="G111" t="n">
-        <v>-816533.9319000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>774.8561999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-817308.7881000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>67.25369999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>-817241.5344000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>6206.7536</v>
       </c>
       <c r="G114" t="n">
-        <v>-823448.2880000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>7865</v>
       </c>
       <c r="G115" t="n">
-        <v>-815583.2880000002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>23461.25</v>
       </c>
       <c r="G116" t="n">
-        <v>-815583.2880000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>56792.9388</v>
       </c>
       <c r="G117" t="n">
-        <v>-872376.2268000002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>11910.606</v>
       </c>
       <c r="G118" t="n">
-        <v>-860465.6208000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>480979.9049</v>
       </c>
       <c r="G119" t="n">
-        <v>-1341445.5257</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>57354.3252</v>
       </c>
       <c r="G120" t="n">
-        <v>-1284091.2005</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>6128.8167</v>
       </c>
       <c r="G121" t="n">
-        <v>-1290220.0172</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>135299.4318</v>
       </c>
       <c r="G122" t="n">
-        <v>-1425519.449</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>5890</v>
       </c>
       <c r="G123" t="n">
-        <v>-1419629.449</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>490210.3593</v>
       </c>
       <c r="G124" t="n">
-        <v>-1909839.8083</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>14694.6563</v>
       </c>
       <c r="G125" t="n">
-        <v>-1895145.152</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>15487.2785</v>
       </c>
       <c r="G126" t="n">
-        <v>-1879657.8735</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>33734.8776</v>
       </c>
       <c r="G127" t="n">
-        <v>-1913392.7511</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>2980</v>
       </c>
       <c r="G128" t="n">
-        <v>-1910412.7511</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2840</v>
       </c>
       <c r="G129" t="n">
-        <v>-1910412.7511</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>235398.5368</v>
       </c>
       <c r="G130" t="n">
-        <v>-2145811.2879</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>12</v>
       </c>
       <c r="G131" t="n">
-        <v>-2145799.2879</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>13082.4813</v>
       </c>
       <c r="G132" t="n">
-        <v>-2158881.7692</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>23157.7975</v>
       </c>
       <c r="G133" t="n">
-        <v>-2158881.7692</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>2448.73</v>
       </c>
       <c r="G134" t="n">
-        <v>-2156433.0392</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,21 @@
         <v>8166.3399</v>
       </c>
       <c r="G135" t="n">
-        <v>-2148266.6993</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4469,19 @@
         <v>37960.4928</v>
       </c>
       <c r="G136" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4503,19 @@
         <v>47014.2325</v>
       </c>
       <c r="G137" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4537,19 @@
         <v>22261.07</v>
       </c>
       <c r="G138" t="n">
-        <v>-2186227.192100001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4571,21 @@
         <v>72657.7798</v>
       </c>
       <c r="G139" t="n">
-        <v>-2258884.971900001</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4607,21 @@
         <v>22862.04</v>
       </c>
       <c r="G140" t="n">
-        <v>-2236022.931900001</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4643,21 @@
         <v>2440</v>
       </c>
       <c r="G141" t="n">
-        <v>-2238462.931900001</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4679,19 @@
         <v>48292.1483</v>
       </c>
       <c r="G142" t="n">
-        <v>-2190170.783600001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4713,21 @@
         <v>669.1472</v>
       </c>
       <c r="G143" t="n">
-        <v>-2190839.930800001</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4749,19 @@
         <v>19675.51</v>
       </c>
       <c r="G144" t="n">
-        <v>-2171164.420800001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4783,19 @@
         <v>3552.8011</v>
       </c>
       <c r="G145" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,22 +4817,19 @@
         <v>2337</v>
       </c>
       <c r="G146" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J146" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5237,26 +4851,19 @@
         <v>190132</v>
       </c>
       <c r="G147" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J147" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5278,26 +4885,19 @@
         <v>3786.58</v>
       </c>
       <c r="G148" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J148" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5319,26 +4919,19 @@
         <v>3780</v>
       </c>
       <c r="G149" t="n">
-        <v>-2174717.221900001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J149" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5360,26 +4953,19 @@
         <v>10025</v>
       </c>
       <c r="G150" t="n">
-        <v>-2164692.221900001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5401,26 +4987,19 @@
         <v>10084</v>
       </c>
       <c r="G151" t="n">
-        <v>-2174776.221900001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>13</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5442,26 +5021,19 @@
         <v>3748.9634</v>
       </c>
       <c r="G152" t="n">
-        <v>-2178525.1853</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J152" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
